--- a/src/test/resources/VechicleRegList.xlsx
+++ b/src/test/resources/VechicleRegList.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26505"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jai/IdeaProjects/VehicleRegistrationCheck/src/test/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19130" windowHeight="8240"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780"/>
   </bookViews>
   <sheets>
     <sheet name="VehicleRegistraionDetails" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>Vehicle Registration</t>
   </si>
@@ -164,20 +174,31 @@
   </si>
   <si>
     <t>SILVER</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>March 2006</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>September 2009</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="mmm\-yy"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,7 +210,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,356 +217,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -554,311 +236,29 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Comma[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
-    <cellStyle name="Currency[0]" xfId="6" builtinId="7"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1119,39 +519,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="12.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="22.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="19.7272727272727" customWidth="1"/>
-    <col min="5" max="5" width="20.0909090909091" customWidth="1"/>
-    <col min="6" max="6" width="13.1818181818182" customWidth="1"/>
-    <col min="7" max="7" width="9.09090909090909" customWidth="1"/>
-    <col min="8" max="8" width="13.9090909090909" customWidth="1"/>
-    <col min="9" max="9" width="13.2727272727273" customWidth="1"/>
-    <col min="10" max="10" width="13.6363636363636" customWidth="1"/>
-    <col min="11" max="11" width="20.5454545454545" customWidth="1"/>
-    <col min="12" max="12" width="18.8181818181818" customWidth="1"/>
-    <col min="13" max="13" width="15.3636363636364" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1"/>
+    <col min="12" max="12" width="18.83203125" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1185,15 +584,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4">
-        <v>41913</v>
+      <c r="C2" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D2" s="3">
         <v>2014</v>
@@ -1226,15 +625,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4">
-        <v>40969</v>
+      <c r="C3" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="D3" s="3">
         <v>2012</v>
@@ -1267,15 +666,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4">
-        <v>42186</v>
+      <c r="C4" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="D4" s="3">
         <v>2015</v>
@@ -1308,15 +707,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="4">
-        <v>38777</v>
+      <c r="C5" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D5" s="3">
         <v>2006</v>
@@ -1349,15 +748,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="4">
-        <v>42675</v>
+      <c r="C6" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="D6" s="3">
         <v>2016</v>
@@ -1390,15 +789,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="4">
-        <v>40057</v>
+      <c r="C7" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="D7" s="3">
         <v>2009</v>
@@ -1432,7 +831,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>